--- a/02. Regressions/out/Table 4.xlsx
+++ b/02. Regressions/out/Table 4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="30">
   <si>
     <t>Female</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>45-55 años</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>treated</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>pvalue</t>
   </si>
 </sst>
 </file>
@@ -136,32 +148,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.42413157224655151</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.41491404175758362</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.0059846364893019199</v>
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.57586842775344849</v>
+        <v>0.42413157224655151</v>
       </c>
       <c r="C2" s="1">
-        <v>0.58508592844009399</v>
+        <v>0.41491404175758362</v>
       </c>
       <c r="D2" s="1">
         <v>0.0059846364893019199</v>
@@ -169,125 +181,125 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.21463264524936676</v>
+        <v>0.57586842775344849</v>
       </c>
       <c r="C3" s="1">
-        <v>0.13002942502498627</v>
+        <v>0.58508592844009399</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.0059846364893019199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.26455578207969666</v>
+        <v>0.21463264524936676</v>
       </c>
       <c r="C4" s="1">
-        <v>0.27811676263809204</v>
+        <v>0.13002942502498627</v>
       </c>
       <c r="D4" s="1">
-        <v>7.6670949056278914e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.20411927998065948</v>
+        <v>0.26455578207969666</v>
       </c>
       <c r="C5" s="1">
-        <v>0.26405450701713562</v>
+        <v>0.27811676263809204</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>7.6670949056278914e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.20756225287914276</v>
+        <v>0.20411927998065948</v>
       </c>
       <c r="C6" s="1">
-        <v>0.24004955589771271</v>
+        <v>0.26405450701713562</v>
       </c>
       <c r="D6" s="1">
-        <v>5.7507846842227528e-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.089978478848934174</v>
+        <v>0.20756225287914276</v>
       </c>
       <c r="C7" s="1">
-        <v>0.069490477442741394</v>
+        <v>0.24004955589771271</v>
       </c>
       <c r="D7" s="1">
-        <v>7.3705098230456468e-30</v>
+        <v>5.7507846842227528e-30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.17786657810211182</v>
+        <v>0.089978478848934174</v>
       </c>
       <c r="C8" s="1">
-        <v>0.24135047197341919</v>
+        <v>0.069490477442741394</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>7.3705098230456468e-30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.13439901173114777</v>
+        <v>0.17786657810211182</v>
       </c>
       <c r="C9" s="1">
-        <v>0.16139073669910431</v>
+        <v>0.24135047197341919</v>
       </c>
       <c r="D9" s="1">
-        <v>2.1798886039027269e-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.59966182708740234</v>
+        <v>0.13439901173114777</v>
       </c>
       <c r="C10" s="1">
-        <v>0.43580609560012817</v>
+        <v>0.16139073669910431</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>2.1798886039027269e-28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.088072545826435089</v>
+        <v>0.59966182708740234</v>
       </c>
       <c r="C11" s="1">
-        <v>0.16145268082618713</v>
+        <v>0.43580609560012817</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -295,13 +307,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.056225024163722992</v>
+        <v>0.088072545826435089</v>
       </c>
       <c r="C12" s="1">
-        <v>0.019203964620828629</v>
+        <v>0.16145268082618713</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -309,97 +321,97 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.11426375806331635</v>
+        <v>0.056225024163722992</v>
       </c>
       <c r="C13" s="1">
-        <v>0.13153167068958282</v>
+        <v>0.019203964620828629</v>
       </c>
       <c r="D13" s="1">
-        <v>1.8460744272228574e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.16950507462024689</v>
+        <v>0.11426375806331635</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25614061951637268</v>
+        <v>0.13153167068958282</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1.8460744272228574e-14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.02419305220246315</v>
+        <v>0.16950507462024689</v>
       </c>
       <c r="C15" s="1">
-        <v>0.026901038363575935</v>
+        <v>0.25614061951637268</v>
       </c>
       <c r="D15" s="1">
-        <v>0.012310800142586231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.049123886972665787</v>
+        <v>0.02419305220246315</v>
       </c>
       <c r="C16" s="1">
-        <v>0.034350316971540451</v>
+        <v>0.026901038363575935</v>
       </c>
       <c r="D16" s="1">
-        <v>4.7691354832295944e-29</v>
+        <v>0.012310800142586231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.021856747567653656</v>
+        <v>0.049123886972665787</v>
       </c>
       <c r="C17" s="1">
-        <v>0.014217128977179527</v>
+        <v>0.034350316971540451</v>
       </c>
       <c r="D17" s="1">
-        <v>2.1280395854396462e-18</v>
+        <v>4.7691354832295944e-29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.23449124395847321</v>
+        <v>0.021856747567653656</v>
       </c>
       <c r="C18" s="1">
-        <v>0.071813538670539856</v>
+        <v>0.014217128977179527</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>2.1280395854396462e-18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.064340606331825256</v>
+        <v>0.23449124395847321</v>
       </c>
       <c r="C19" s="1">
-        <v>0.12567755579948425</v>
+        <v>0.071813538670539856</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -407,13 +419,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.062219489365816116</v>
+        <v>0.064340606331825256</v>
       </c>
       <c r="C20" s="1">
-        <v>0.096112743020057678</v>
+        <v>0.12567755579948425</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -421,71 +433,85 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.024500461295247078</v>
+        <v>0.062219489365816116</v>
       </c>
       <c r="C21" s="1">
-        <v>0.018708378076553345</v>
+        <v>0.096112743020057678</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0853729854053427e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.053366124629974365</v>
+        <v>0.024500461295247078</v>
       </c>
       <c r="C22" s="1">
-        <v>0.04200093075633049</v>
+        <v>0.018708378076553345</v>
       </c>
       <c r="D22" s="1">
-        <v>1.2800416956048558e-15</v>
+        <v>2.0853729854053427e-09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.052013527601957321</v>
+        <v>0.053366124629974365</v>
       </c>
       <c r="C23" s="1">
-        <v>0.086309432983398438</v>
+        <v>0.04200093075633049</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>1.2800416956048558e-15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.048017214983701706</v>
+        <v>0.052013527601957321</v>
       </c>
       <c r="C24" s="1">
-        <v>0.031717516481876373</v>
+        <v>0.086309432983398438</v>
       </c>
       <c r="D24" s="1">
-        <v>8.0259775360239166e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.048017214983701706</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.031717516481876373</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.0259775360239166e-37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>0.02588379941880703</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>0.045315161347389221</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
     </row>
